--- a/Menu/assets/frame0/Events.xlsx
+++ b/Menu/assets/frame0/Events.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -530,6 +530,196 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Trigger</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2024-04-23</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>15:59:39</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="F3" t="n">
+        <v>13.99</v>
+      </c>
+      <c r="G3" t="n">
+        <v>13.48</v>
+      </c>
+      <c r="H3" t="n">
+        <v>114.19</v>
+      </c>
+      <c r="I3" t="n">
+        <v>114.51</v>
+      </c>
+      <c r="J3" t="n">
+        <v>104.72</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Trigger</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2024-04-23</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>16:17:51</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="F4" t="n">
+        <v>11.42</v>
+      </c>
+      <c r="G4" t="n">
+        <v>10.55</v>
+      </c>
+      <c r="H4" t="n">
+        <v>123.23</v>
+      </c>
+      <c r="I4" t="n">
+        <v>120.36</v>
+      </c>
+      <c r="J4" t="n">
+        <v>106.68</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Trigger</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2024-04-23</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>16:43:13</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="F5" t="n">
+        <v>7.99</v>
+      </c>
+      <c r="G5" t="n">
+        <v>8.31</v>
+      </c>
+      <c r="H5" t="n">
+        <v>123.21</v>
+      </c>
+      <c r="I5" t="n">
+        <v>127.38</v>
+      </c>
+      <c r="J5" t="n">
+        <v>117.39</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Trigger</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2024-04-23</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>19:01:53</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="F6" t="n">
+        <v>12.24</v>
+      </c>
+      <c r="G6" t="n">
+        <v>11.94</v>
+      </c>
+      <c r="H6" t="n">
+        <v>121.84</v>
+      </c>
+      <c r="I6" t="n">
+        <v>124</v>
+      </c>
+      <c r="J6" t="n">
+        <v>117.69</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Trigger</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2024-04-29</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12:33:06</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="F7" t="n">
+        <v>11.49</v>
+      </c>
+      <c r="G7" t="n">
+        <v>10.63</v>
+      </c>
+      <c r="H7" t="n">
+        <v>126.39</v>
+      </c>
+      <c r="I7" t="n">
+        <v>116.37</v>
+      </c>
+      <c r="J7" t="n">
+        <v>106.77</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
